--- a/app项目/功能需求分析.xlsx
+++ b/app项目/功能需求分析.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="发布心情" sheetId="1" r:id="rId1"/>
+    <sheet name="详情页面" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,12 +204,255 @@
     <t>文字描述为多种数据混合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示内容：包括头像、用户名、
+发布时间、发布动态的文字描述、
+发布的图片、学员绑定的驾校、
+所有带你赞用户的头像列表、所有的评论信息、
+同时会展示点赞的总个数与评论的总条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布动态的文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的驾校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的评论信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞总个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论总条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名类型、长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定驾校后是否展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞用户的头像列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过多少人点赞后头像会折叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过多少人评论后评论会出现折叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表的用户头像，能进入用户主页
+​ 可以进行点赞和取消点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>​ 可以进行点赞和取消点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表的用户头像，能进入用户主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表的用户头像，是否能进入用户主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以正常的点赞和取消点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对动态进行评论
+​ 评论文字内容不能超过200字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容的长度限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以正常的进行评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容为199字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容为200字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容为201字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击评论内容可以进行回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击评论内容复制操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   ​ 回复文字内容不能超过200字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以对评论的内容进行回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以对评论的内容进行复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容为199字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容为200字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容为201字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+​  可以支持文字回复（包括各种语言输入法等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容为英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复的内容为五笔输入法输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击评论内容可以进行回复或者复制操作
+   ​ 回复文字内容不能超过200字符
+​  可以支持文字回复（包括各种语言输入法等）
+​  可以对回复的内容再次回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对回复的内容再次回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对同一内容进行多次回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对动态进行举报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以对动态进行举报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像图片是否能正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布的图片是否能够正常的显示，能点开，能保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字描述是否能够正常的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +462,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -308,17 +561,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -330,6 +589,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,16 +604,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -673,271 +932,272 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="12" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="12" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="12" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A21"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C12:C14"/>
@@ -947,7 +1207,348 @@
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A2:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="19.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="40.375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
